--- a/GA1AB/ColonyQuest/ColonyQuest/Book2.xlsx
+++ b/GA1AB/ColonyQuest/ColonyQuest/Book2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\GA1AB-gamedev\GA1AB\ColonyQuest\ColonyQuest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\新しいフォルダー\GA1AB\ColonyQuest\ColonyQuest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,6 +110,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF3300"/>
         </patternFill>
       </fill>
@@ -131,20 +166,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF3300"/>
         </patternFill>
       </fill>
@@ -153,27 +174,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFDD4747"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CN14" sqref="CN14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -832,7 +832,7 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1">
@@ -889,7 +889,7 @@
       <c r="X2" s="1">
         <v>0</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2" s="1">
         <v>0</v>
       </c>
       <c r="Z2" s="1">
@@ -937,7 +937,7 @@
       <c r="AN2" s="1">
         <v>0</v>
       </c>
-      <c r="AO2" s="3">
+      <c r="AO2" s="1">
         <v>0</v>
       </c>
       <c r="AP2" s="1">
@@ -973,139 +973,139 @@
       <c r="AZ2" s="1">
         <v>0</v>
       </c>
-      <c r="BA2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BV2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BX2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BY2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BZ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CB2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CC2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CE2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CF2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CG2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CI2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CL2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CM2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CO2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CP2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CQ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CR2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS2" s="3">
+      <c r="BA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS2" s="1">
         <v>0</v>
       </c>
       <c r="CT2" s="3">
@@ -1275,139 +1275,139 @@
       <c r="AZ3" s="1">
         <v>0</v>
       </c>
-      <c r="BA3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BV3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BX3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BY3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BZ3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CB3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CC3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CF3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CI3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CL3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CO3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CP3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CQ3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CR3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS3" s="3">
+      <c r="BA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="1">
         <v>0</v>
       </c>
       <c r="CT3" s="3">
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AD4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE4" s="1">
         <v>0</v>
@@ -1577,139 +1577,139 @@
       <c r="AZ4" s="1">
         <v>0</v>
       </c>
-      <c r="BA4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BV4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BX4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BY4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BZ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CB4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CC4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CE4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CF4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CG4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CI4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CL4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CM4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CO4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CP4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CQ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CR4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS4" s="3">
+      <c r="BA4" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS4" s="1">
         <v>0</v>
       </c>
       <c r="CT4" s="3">
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1805,13 +1805,13 @@
         <v>0</v>
       </c>
       <c r="AB5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="1">
         <v>0</v>
       </c>
       <c r="AD5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="1">
         <v>0</v>
@@ -1880,13 +1880,13 @@
         <v>0</v>
       </c>
       <c r="BA5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5" s="1">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="BF5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG5" s="1">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT5" s="1">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BY5" s="1">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         <v>0</v>
       </c>
       <c r="AA6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="1">
         <v>0</v>
       </c>
       <c r="AD6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="1">
         <v>0</v>
@@ -2173,31 +2173,31 @@
         <v>0</v>
       </c>
       <c r="AX6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="1">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT6" s="1">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="BW6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY6" s="1">
         <v>0</v>
@@ -2358,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2403,25 +2403,25 @@
         <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="1">
         <v>0</v>
       </c>
       <c r="AD7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" s="1">
         <v>0</v>
@@ -2469,43 +2469,43 @@
         <v>0</v>
       </c>
       <c r="AV7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="1">
         <v>0</v>
       </c>
       <c r="AZ7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7" s="1">
         <v>0</v>
       </c>
       <c r="BF7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI7" s="1">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="BR7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7" s="1">
         <v>0</v>
@@ -2550,13 +2550,13 @@
         <v>0</v>
       </c>
       <c r="BW7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ7" s="1">
         <v>0</v>
@@ -2657,13 +2657,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2702,31 +2702,31 @@
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="1">
         <v>0</v>
       </c>
       <c r="AD8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8" s="1">
         <v>0</v>
@@ -2768,10 +2768,10 @@
         <v>0</v>
       </c>
       <c r="AU8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW8" s="1">
         <v>0</v>
@@ -2783,19 +2783,19 @@
         <v>0</v>
       </c>
       <c r="AZ8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8" s="1">
         <v>0</v>
@@ -2807,10 +2807,10 @@
         <v>0</v>
       </c>
       <c r="BH8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ8" s="1">
         <v>0</v>
@@ -2834,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="BQ8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8" s="1">
         <v>0</v>
@@ -2852,16 +2852,16 @@
         <v>0</v>
       </c>
       <c r="BW8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA8" s="1">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="CH8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CI8" s="1">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="CL8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CM8" s="1">
         <v>0</v>
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2983,13 +2983,13 @@
         <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>0</v>
@@ -3001,67 +3001,67 @@
         <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO9" s="1">
         <v>4</v>
       </c>
-      <c r="AB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>0</v>
-      </c>
       <c r="AP9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AQ9" s="1">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS9" s="1">
         <v>1</v>
@@ -3070,10 +3070,10 @@
         <v>1</v>
       </c>
       <c r="AU9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW9" s="1">
         <v>0</v>
@@ -3085,64 +3085,64 @@
         <v>0</v>
       </c>
       <c r="AZ9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BB9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE9" s="1">
         <v>0</v>
       </c>
       <c r="BF9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BG9" s="1">
         <v>0</v>
       </c>
       <c r="BH9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL9" s="1">
         <v>0</v>
       </c>
       <c r="BM9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP9" s="1">
         <v>1</v>
       </c>
       <c r="BQ9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT9" s="1">
         <v>0</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="BW9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX9" s="1">
         <v>1</v>
@@ -3169,10 +3169,10 @@
         <v>1</v>
       </c>
       <c r="CB9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD9" s="1">
         <v>0</v>
@@ -3187,37 +3187,37 @@
         <v>0</v>
       </c>
       <c r="CH9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI9" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK9" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL9" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP9" s="1">
         <v>4</v>
       </c>
-      <c r="CJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL9" s="1">
-        <v>4</v>
-      </c>
-      <c r="CM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO9" s="1">
-        <v>4</v>
-      </c>
-      <c r="CP9" s="1">
-        <v>0</v>
-      </c>
       <c r="CQ9" s="1">
         <v>0</v>
       </c>
       <c r="CR9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CS9" s="1">
         <v>0</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="CU9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CV9" s="3">
         <v>6</v>
@@ -3276,13 +3276,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="1">
         <v>1</v>
@@ -3294,10 +3294,10 @@
         <v>1</v>
       </c>
       <c r="U10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="1">
         <v>1</v>
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="1">
         <v>1</v>
@@ -3333,13 +3333,13 @@
         <v>1</v>
       </c>
       <c r="AH10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10" s="1">
         <v>1</v>
@@ -3372,19 +3372,19 @@
         <v>1</v>
       </c>
       <c r="AU10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW10" s="1">
         <v>0</v>
       </c>
       <c r="AX10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="1">
         <v>1</v>
@@ -3402,25 +3402,25 @@
         <v>1</v>
       </c>
       <c r="BE10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH10" s="1">
         <v>1</v>
       </c>
       <c r="BI10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL10" s="1">
         <v>1</v>
@@ -3441,19 +3441,19 @@
         <v>1</v>
       </c>
       <c r="BR10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT10" s="1">
         <v>0</v>
       </c>
       <c r="BU10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW10" s="1">
         <v>1</v>
@@ -3525,10 +3525,10 @@
         <v>1</v>
       </c>
       <c r="CT10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CU10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CV10" s="1">
         <v>1</v>
@@ -4056,73 +4056,73 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="AK2:AZ9 M5:CU9 G10:CS10 A1:AX10">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+  <conditionalFormatting sqref="AK2:AZ9 A1:AX10 E2:CS8 G10:CS10 BT9:BV10 BE9:BG10 E5:CU9 AW9:AY10">
+    <cfRule type="cellIs" dxfId="5" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY2:CV9">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+  <conditionalFormatting sqref="BT9:BV10 BE9:BG10 E2:CV9 AW9:AY10">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY1:CV1 AY10:CV10">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV10">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO2">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:CV9">
+  <conditionalFormatting sqref="BT9:BV10 BE9:BG10 A1:CV9 AW9:AY10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>

--- a/GA1AB/ColonyQuest/ColonyQuest/Book2.xlsx
+++ b/GA1AB/ColonyQuest/ColonyQuest/Book2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\新しいフォルダー\GA1AB\ColonyQuest\ColonyQuest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\ColoQuest2\GA1AB\ColonyQuest\ColonyQuest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,8 +26,12 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,6 +114,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF33CC33"/>
         </patternFill>
       </fill>
@@ -118,6 +143,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDD4747"/>
         </patternFill>
       </fill>
     </dxf>
@@ -139,41 +178,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDD4747"/>
         </patternFill>
       </fill>
     </dxf>
@@ -504,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AS3" sqref="AS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -956,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="AU2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV2" s="1">
         <v>0</v>
@@ -1108,10 +1112,10 @@
       <c r="CS2" s="1">
         <v>0</v>
       </c>
-      <c r="CT2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU2" s="3">
+      <c r="CT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU2" s="1">
         <v>0</v>
       </c>
       <c r="CV2" s="3">
@@ -1258,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="AU3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV3" s="1">
         <v>0</v>
@@ -1410,10 +1414,10 @@
       <c r="CS3" s="1">
         <v>0</v>
       </c>
-      <c r="CT3" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="3">
+      <c r="CT3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="1">
         <v>0</v>
       </c>
       <c r="CV3" s="3">
@@ -1509,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="AD4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>0</v>
@@ -1560,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="AU4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV4" s="1">
         <v>0</v>
@@ -1578,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="BA4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="1">
         <v>0</v>
@@ -1712,10 +1716,10 @@
       <c r="CS4" s="1">
         <v>0</v>
       </c>
-      <c r="CT4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU4" s="3">
+      <c r="CT4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU4" s="1">
         <v>0</v>
       </c>
       <c r="CV4" s="3">
@@ -1757,184 +1761,184 @@
         <v>0</v>
       </c>
       <c r="L5" s="1">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>4</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="1">
         <v>5</v>
       </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1">
-        <v>0</v>
-      </c>
-      <c r="V5" s="1">
-        <v>0</v>
-      </c>
-      <c r="W5" s="1">
-        <v>0</v>
-      </c>
-      <c r="X5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BB5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BC5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="1">
-        <v>4</v>
-      </c>
-      <c r="BG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="1">
-        <v>0</v>
-      </c>
       <c r="BR5" s="1">
         <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BT5" s="1">
         <v>0</v>
@@ -1949,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BY5" s="1">
         <v>0</v>
@@ -2018,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="CU5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CV5" s="3">
         <v>6</v>
@@ -2053,22 +2057,22 @@
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
       </c>
       <c r="M6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="1">
         <v>0</v>
@@ -2077,16 +2081,16 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="1">
         <v>0</v>
@@ -2104,22 +2108,22 @@
         <v>0</v>
       </c>
       <c r="AA6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="1">
         <v>0</v>
       </c>
       <c r="AD6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG6" s="1">
         <v>0</v>
@@ -2152,37 +2156,37 @@
         <v>0</v>
       </c>
       <c r="AQ6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="1">
         <v>0</v>
       </c>
       <c r="AX6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="1">
         <v>1</v>
@@ -2197,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="BF6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="1">
         <v>0</v>
@@ -2224,19 +2228,19 @@
         <v>0</v>
       </c>
       <c r="BO6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="1">
         <v>0</v>
@@ -2248,10 +2252,10 @@
         <v>0</v>
       </c>
       <c r="BW6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY6" s="1">
         <v>0</v>
@@ -2290,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="CK6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CL6" s="1">
         <v>0</v>
@@ -2302,28 +2306,28 @@
         <v>0</v>
       </c>
       <c r="CO6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CP6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV6" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:100" x14ac:dyDescent="0.15">
@@ -2352,16 +2356,16 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2391,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="1">
         <v>0</v>
@@ -2403,13 +2407,13 @@
         <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="1">
         <v>0</v>
@@ -2436,16 +2440,16 @@
         <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO7" s="1">
         <v>0</v>
@@ -2469,25 +2473,25 @@
         <v>0</v>
       </c>
       <c r="AV7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW7" s="1">
         <v>1</v>
       </c>
       <c r="AX7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>0</v>
       </c>
       <c r="AZ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="1">
         <v>1</v>
       </c>
       <c r="BB7" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC7" s="1">
         <v>1</v>
@@ -2496,16 +2500,16 @@
         <v>1</v>
       </c>
       <c r="BE7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF7" s="1">
         <v>1</v>
       </c>
       <c r="BG7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>0</v>
@@ -2523,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO7" s="1">
         <v>0</v>
@@ -2535,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="BR7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>1</v>
@@ -2550,13 +2554,13 @@
         <v>0</v>
       </c>
       <c r="BW7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ7" s="1">
         <v>0</v>
@@ -2580,52 +2584,52 @@
         <v>0</v>
       </c>
       <c r="CG7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CH7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:100" x14ac:dyDescent="0.15">
@@ -2657,13 +2661,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2702,16 +2706,16 @@
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="1">
         <v>0</v>
@@ -2726,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="1">
         <v>0</v>
@@ -2738,16 +2742,16 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8" s="1">
         <v>0</v>
@@ -2768,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="AU8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW8" s="1">
         <v>0</v>
@@ -2783,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="AZ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="1">
         <v>1</v>
@@ -2798,19 +2802,19 @@
         <v>1</v>
       </c>
       <c r="BE8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG8" s="1">
         <v>0</v>
       </c>
       <c r="BH8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ8" s="1">
         <v>0</v>
@@ -2834,13 +2838,13 @@
         <v>0</v>
       </c>
       <c r="BQ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT8" s="1">
         <v>0</v>
@@ -2852,16 +2856,16 @@
         <v>0</v>
       </c>
       <c r="BW8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA8" s="1">
         <v>0</v>
@@ -2873,61 +2877,61 @@
         <v>0</v>
       </c>
       <c r="CD8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CE8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CI8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL8" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CM8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV8" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:100" x14ac:dyDescent="0.15">
@@ -2956,19 +2960,19 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N9" s="1">
         <v>0</v>
@@ -2983,31 +2987,31 @@
         <v>0</v>
       </c>
       <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>4</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
         <v>5</v>
       </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1">
-        <v>0</v>
-      </c>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1">
-        <v>1</v>
-      </c>
       <c r="Y9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="1">
         <v>1</v>
@@ -3016,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="1">
         <v>1</v>
@@ -3028,10 +3032,10 @@
         <v>1</v>
       </c>
       <c r="AG9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="1">
         <v>0</v>
@@ -3040,59 +3044,59 @@
         <v>0</v>
       </c>
       <c r="AK9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1">
         <v>5</v>
       </c>
-      <c r="AO9" s="1">
+      <c r="AT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB9" s="1">
         <v>4</v>
       </c>
-      <c r="AP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="1">
-        <v>1</v>
-      </c>
-      <c r="BA9" s="1">
-        <v>1</v>
-      </c>
-      <c r="BB9" s="1">
-        <v>1</v>
-      </c>
       <c r="BC9" s="1">
         <v>1</v>
       </c>
@@ -3100,25 +3104,25 @@
         <v>1</v>
       </c>
       <c r="BE9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK9" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BL9" s="1">
         <v>0</v>
@@ -3133,16 +3137,16 @@
         <v>0</v>
       </c>
       <c r="BP9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BR9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT9" s="1">
         <v>0</v>
@@ -3154,37 +3158,37 @@
         <v>0</v>
       </c>
       <c r="BW9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB9" s="1">
         <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH9" s="1">
         <v>1</v>
@@ -3202,34 +3206,34 @@
         <v>1</v>
       </c>
       <c r="CM9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CQ9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CV9" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:100" x14ac:dyDescent="0.15">
@@ -3270,13 +3274,13 @@
         <v>1</v>
       </c>
       <c r="M10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="1">
         <v>0</v>
@@ -3318,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="1">
         <v>1</v>
@@ -3330,16 +3334,16 @@
         <v>1</v>
       </c>
       <c r="AG10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="1">
         <v>1</v>
@@ -3378,7 +3382,7 @@
         <v>1</v>
       </c>
       <c r="AW10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="1">
         <v>0</v>
@@ -3402,13 +3406,13 @@
         <v>1</v>
       </c>
       <c r="BE10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH10" s="1">
         <v>1</v>
@@ -3447,25 +3451,25 @@
         <v>1</v>
       </c>
       <c r="BT10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW10" s="1">
         <v>1</v>
       </c>
       <c r="BX10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA10" s="1">
         <v>1</v>
@@ -4056,73 +4060,73 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="AK2:AZ9 A1:AX10 E2:CS8 G10:CS10 BT9:BV10 BE9:BG10 E5:CU9 AW9:AY10">
-    <cfRule type="cellIs" dxfId="5" priority="18" operator="equal">
+  <conditionalFormatting sqref="A1:AX10 G10:CS10 BT9:BV10 BE9:BG10 AW9:AY10 E2:CU9">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT9:BV10 BE9:BG10 E2:CV9 AW9:AY10">
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+  <conditionalFormatting sqref="BT9:BV10 BE9:BG10 AW9:AY10 E2:CV9">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY1:CV1 AY10:CV10">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+  <conditionalFormatting sqref="AY1:CV1 E10:CV10">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+  <conditionalFormatting sqref="I2:I9">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV10">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+  <conditionalFormatting sqref="Y2:Y9">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO2">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+  <conditionalFormatting sqref="AO2:AO9">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+  <conditionalFormatting sqref="F2:F9">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT9:BV10 BE9:BG10 A1:CV9 AW9:AY10">
+  <conditionalFormatting sqref="BT9:BV10 BE9:BG10 AW9:AY10 A1:CV9">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>
